--- a/CTaxCosts.xlsx
+++ b/CTaxCosts.xlsx
@@ -5,14 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttombe\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttombe\Documents\R Projects\CTax\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NetCosts" sheetId="1" r:id="rId1"/>
+    <sheet name="NetCostwithFed" sheetId="2" r:id="rId2"/>
+    <sheet name="NetCostwithFedx2" sheetId="3" r:id="rId3"/>
+    <sheet name="NetCostsx2" sheetId="5" r:id="rId4"/>
+    <sheet name="Rebates" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>All</t>
   </si>
@@ -48,6 +52,33 @@
   </si>
   <si>
     <t>&gt;$150k</t>
+  </si>
+  <si>
+    <t>Household Income Group</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Min-30000</t>
+  </si>
+  <si>
+    <t>30001-60000</t>
+  </si>
+  <si>
+    <t>60001-90000</t>
+  </si>
+  <si>
+    <t>90001-120000</t>
+  </si>
+  <si>
+    <t>120001-150000</t>
+  </si>
+  <si>
+    <t>150001-Max</t>
+  </si>
+  <si>
+    <t>Federal</t>
   </si>
 </sst>
 </file>
@@ -100,6 +131,947 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rebates!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alberta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rebates!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4049-46FD-8AD1-BBFB360A3894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rebates!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Federal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rebates!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4049-46FD-8AD1-BBFB360A3894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="454381688"/>
+        <c:axId val="454381360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454381688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454381360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454381360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454381688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,4 +3220,5876 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-700</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D2">
+        <v>8.1</v>
+      </c>
+      <c r="E2">
+        <v>5.5</v>
+      </c>
+      <c r="F2">
+        <v>1.5</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-675</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-650</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.8</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.4</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-625</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-600</v>
+      </c>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>1.8</v>
+      </c>
+      <c r="D6">
+        <v>1.2</v>
+      </c>
+      <c r="E6">
+        <v>0.9</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-575</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>2.1</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-550</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8">
+        <v>3.1</v>
+      </c>
+      <c r="D8">
+        <v>3.4</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>1.2</v>
+      </c>
+      <c r="H8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-525</v>
+      </c>
+      <c r="B9">
+        <v>1.4</v>
+      </c>
+      <c r="C9">
+        <v>3.6</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>1.2</v>
+      </c>
+      <c r="G9">
+        <v>3.2</v>
+      </c>
+      <c r="H9">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-500</v>
+      </c>
+      <c r="B10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10">
+        <v>5.9</v>
+      </c>
+      <c r="D10">
+        <v>7.4</v>
+      </c>
+      <c r="E10">
+        <v>3.3</v>
+      </c>
+      <c r="F10">
+        <v>1.2</v>
+      </c>
+      <c r="G10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H10">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-475</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="C11">
+        <v>3.3</v>
+      </c>
+      <c r="D11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E11">
+        <v>3.9</v>
+      </c>
+      <c r="F11">
+        <v>1.6</v>
+      </c>
+      <c r="G11">
+        <v>2.8</v>
+      </c>
+      <c r="H11">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-450</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>8.9</v>
+      </c>
+      <c r="D12">
+        <v>11.9</v>
+      </c>
+      <c r="E12">
+        <v>3.2</v>
+      </c>
+      <c r="F12">
+        <v>2.1</v>
+      </c>
+      <c r="G12">
+        <v>3.2</v>
+      </c>
+      <c r="H12">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-425</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>9.9</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G13">
+        <v>3.6</v>
+      </c>
+      <c r="H13">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-400</v>
+      </c>
+      <c r="B14">
+        <v>1.7</v>
+      </c>
+      <c r="C14">
+        <v>10.8</v>
+      </c>
+      <c r="D14">
+        <v>9.4</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>3.2</v>
+      </c>
+      <c r="G14">
+        <v>5.2</v>
+      </c>
+      <c r="H14">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-375</v>
+      </c>
+      <c r="B15">
+        <v>1.6</v>
+      </c>
+      <c r="C15">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E15">
+        <v>8.5</v>
+      </c>
+      <c r="F15">
+        <v>3.4</v>
+      </c>
+      <c r="G15">
+        <v>5.3</v>
+      </c>
+      <c r="H15">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-350</v>
+      </c>
+      <c r="B16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C16">
+        <v>13.7</v>
+      </c>
+      <c r="D16">
+        <v>9.9</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>7.4</v>
+      </c>
+      <c r="G16">
+        <v>6.3</v>
+      </c>
+      <c r="H16">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-325</v>
+      </c>
+      <c r="B17">
+        <v>11.1</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>11.4</v>
+      </c>
+      <c r="E17">
+        <v>6.6</v>
+      </c>
+      <c r="F17">
+        <v>5.8</v>
+      </c>
+      <c r="G17">
+        <v>7.5</v>
+      </c>
+      <c r="H17">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-300</v>
+      </c>
+      <c r="B18">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C18">
+        <v>23.7</v>
+      </c>
+      <c r="D18">
+        <v>14.4</v>
+      </c>
+      <c r="E18">
+        <v>7.1</v>
+      </c>
+      <c r="F18">
+        <v>6.7</v>
+      </c>
+      <c r="G18">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H18">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-275</v>
+      </c>
+      <c r="B19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C19">
+        <v>25.4</v>
+      </c>
+      <c r="D19">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F19">
+        <v>6.4</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-250</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>21.7</v>
+      </c>
+      <c r="D20">
+        <v>18.8</v>
+      </c>
+      <c r="E20">
+        <v>6.6</v>
+      </c>
+      <c r="F20">
+        <v>5.5</v>
+      </c>
+      <c r="G20">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H20">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-225</v>
+      </c>
+      <c r="B21">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C21">
+        <v>26.8</v>
+      </c>
+      <c r="D21">
+        <v>17.8</v>
+      </c>
+      <c r="E21">
+        <v>9.1</v>
+      </c>
+      <c r="F21">
+        <v>7.5</v>
+      </c>
+      <c r="G21">
+        <v>10.5</v>
+      </c>
+      <c r="H21">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-200</v>
+      </c>
+      <c r="B22">
+        <v>12.6</v>
+      </c>
+      <c r="C22">
+        <v>20.9</v>
+      </c>
+      <c r="D22">
+        <v>21.1</v>
+      </c>
+      <c r="E22">
+        <v>7.9</v>
+      </c>
+      <c r="F22">
+        <v>5.4</v>
+      </c>
+      <c r="G22">
+        <v>11.7</v>
+      </c>
+      <c r="H22">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-175</v>
+      </c>
+      <c r="B23">
+        <v>12.7</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>11.9</v>
+      </c>
+      <c r="E23">
+        <v>5.8</v>
+      </c>
+      <c r="F23">
+        <v>5.4</v>
+      </c>
+      <c r="G23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-150</v>
+      </c>
+      <c r="B24">
+        <v>13.4</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>10.5</v>
+      </c>
+      <c r="E24">
+        <v>6.8</v>
+      </c>
+      <c r="F24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G24">
+        <v>8.5</v>
+      </c>
+      <c r="H24">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-125</v>
+      </c>
+      <c r="B25">
+        <v>13.5</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>5.9</v>
+      </c>
+      <c r="E25">
+        <v>5.7</v>
+      </c>
+      <c r="F25">
+        <v>5.2</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-100</v>
+      </c>
+      <c r="B26">
+        <v>2.5</v>
+      </c>
+      <c r="C26">
+        <v>12.7</v>
+      </c>
+      <c r="D26">
+        <v>6.2</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>7.8</v>
+      </c>
+      <c r="H26">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-75</v>
+      </c>
+      <c r="B27">
+        <v>4.3</v>
+      </c>
+      <c r="C27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F27">
+        <v>2.1</v>
+      </c>
+      <c r="G27">
+        <v>7.2</v>
+      </c>
+      <c r="H27">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-50</v>
+      </c>
+      <c r="B28">
+        <v>3.1</v>
+      </c>
+      <c r="C28">
+        <v>10.6</v>
+      </c>
+      <c r="D28">
+        <v>5.2</v>
+      </c>
+      <c r="E28">
+        <v>5.4</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>6.5</v>
+      </c>
+      <c r="H28">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-25</v>
+      </c>
+      <c r="B29">
+        <v>1.2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5.8</v>
+      </c>
+      <c r="E29">
+        <v>2.5</v>
+      </c>
+      <c r="F29">
+        <v>1.6</v>
+      </c>
+      <c r="G29">
+        <v>6.1</v>
+      </c>
+      <c r="H29">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1.4</v>
+      </c>
+      <c r="C30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E30">
+        <v>1.7</v>
+      </c>
+      <c r="F30">
+        <v>1.3</v>
+      </c>
+      <c r="G30">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H30">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>1.9</v>
+      </c>
+      <c r="C31">
+        <v>3.4</v>
+      </c>
+      <c r="D31">
+        <v>2.9</v>
+      </c>
+      <c r="E31">
+        <v>1.8</v>
+      </c>
+      <c r="F31">
+        <v>1.4</v>
+      </c>
+      <c r="G31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H31">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>4.2</v>
+      </c>
+      <c r="E32">
+        <v>1.6</v>
+      </c>
+      <c r="F32">
+        <v>2.6</v>
+      </c>
+      <c r="G32">
+        <v>4.2</v>
+      </c>
+      <c r="H32">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>3.6</v>
+      </c>
+      <c r="D33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2.4</v>
+      </c>
+      <c r="G33">
+        <v>3.2</v>
+      </c>
+      <c r="H33">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34">
+        <v>2.4</v>
+      </c>
+      <c r="D34">
+        <v>0.8</v>
+      </c>
+      <c r="E34">
+        <v>1.2</v>
+      </c>
+      <c r="F34">
+        <v>1.6</v>
+      </c>
+      <c r="G34">
+        <v>3.1</v>
+      </c>
+      <c r="H34">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>125</v>
+      </c>
+      <c r="B35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35">
+        <v>0.9</v>
+      </c>
+      <c r="F35">
+        <v>0.6</v>
+      </c>
+      <c r="G35">
+        <v>2.6</v>
+      </c>
+      <c r="H35">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <v>0.3</v>
+      </c>
+      <c r="C36">
+        <v>0.6</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.6</v>
+      </c>
+      <c r="G36">
+        <v>2.7</v>
+      </c>
+      <c r="H36">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <v>0.1</v>
+      </c>
+      <c r="C37">
+        <v>1.7</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+      <c r="F37">
+        <v>2.1</v>
+      </c>
+      <c r="G37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H37">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>200</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>0.3</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>225</v>
+      </c>
+      <c r="B39">
+        <v>0.1</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>2.5</v>
+      </c>
+      <c r="H39">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>250</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>0.3</v>
+      </c>
+      <c r="F40">
+        <v>0.3</v>
+      </c>
+      <c r="G40">
+        <v>1.7</v>
+      </c>
+      <c r="H40">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>275</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.4</v>
+      </c>
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+      <c r="G41">
+        <v>1.2</v>
+      </c>
+      <c r="H41">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.2</v>
+      </c>
+      <c r="G42">
+        <v>1.4</v>
+      </c>
+      <c r="H42">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>325</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>350</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1.2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.1</v>
+      </c>
+      <c r="F44">
+        <v>0.2</v>
+      </c>
+      <c r="G44">
+        <v>0.9</v>
+      </c>
+      <c r="H44">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>375</v>
+      </c>
+      <c r="B45">
+        <v>0.4</v>
+      </c>
+      <c r="C45">
+        <v>0.5</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.3</v>
+      </c>
+      <c r="F45">
+        <v>0.2</v>
+      </c>
+      <c r="G45">
+        <v>0.9</v>
+      </c>
+      <c r="H45">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>400</v>
+      </c>
+      <c r="B46">
+        <v>0.4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <v>0.1</v>
+      </c>
+      <c r="G46">
+        <v>0.8</v>
+      </c>
+      <c r="H46">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>425</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+      <c r="G47">
+        <v>0.7</v>
+      </c>
+      <c r="H47">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>450</v>
+      </c>
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+      <c r="G48">
+        <v>0.6</v>
+      </c>
+      <c r="H48">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>475</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.1</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+      <c r="H49">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>500</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.8</v>
+      </c>
+      <c r="F50">
+        <v>0.8</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>525</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.7</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>550</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.1</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+      <c r="H52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>575</v>
+      </c>
+      <c r="B53">
+        <v>0.3</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+      <c r="E53">
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0.4</v>
+      </c>
+      <c r="H53">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>600</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.3</v>
+      </c>
+      <c r="H54">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>625</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0.3</v>
+      </c>
+      <c r="H55">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>650</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
+      <c r="G56">
+        <v>0.3</v>
+      </c>
+      <c r="H56">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>675</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.2</v>
+      </c>
+      <c r="H57">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>700</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.3</v>
+      </c>
+      <c r="H58">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>725</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.2</v>
+      </c>
+      <c r="G59">
+        <v>0.2</v>
+      </c>
+      <c r="H59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>750</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0.2</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>775</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.2</v>
+      </c>
+      <c r="H61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>800</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.2</v>
+      </c>
+      <c r="H62">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>825</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.2</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>850</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0.1</v>
+      </c>
+      <c r="H64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>875</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.1</v>
+      </c>
+      <c r="H65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>900</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.1</v>
+      </c>
+      <c r="H66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>925</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.1</v>
+      </c>
+      <c r="H67">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>950</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.1</v>
+      </c>
+      <c r="H68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>975</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.1</v>
+      </c>
+      <c r="H69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1000</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.1</v>
+      </c>
+      <c r="H70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1025</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.1</v>
+      </c>
+      <c r="H71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1050</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1075</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1100</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.1</v>
+      </c>
+      <c r="H74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1125</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.6</v>
+      </c>
+      <c r="H75">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1150</v>
+      </c>
+      <c r="B76">
+        <v>165.6</v>
+      </c>
+      <c r="C76">
+        <v>321.8</v>
+      </c>
+      <c r="D76">
+        <v>260.2</v>
+      </c>
+      <c r="E76">
+        <v>154.1</v>
+      </c>
+      <c r="F76">
+        <v>105.1</v>
+      </c>
+      <c r="G76">
+        <v>195</v>
+      </c>
+      <c r="H76">
+        <v>1201.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-600</v>
+      </c>
+      <c r="B2">
+        <v>9.5</v>
+      </c>
+      <c r="C2">
+        <v>27.5</v>
+      </c>
+      <c r="D2">
+        <v>56.4</v>
+      </c>
+      <c r="E2">
+        <v>56.2</v>
+      </c>
+      <c r="F2">
+        <v>39.6</v>
+      </c>
+      <c r="G2">
+        <v>68.7</v>
+      </c>
+      <c r="H2">
+        <v>257.89999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-575</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>4.3</v>
+      </c>
+      <c r="D3">
+        <v>7.5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2.6</v>
+      </c>
+      <c r="G3">
+        <v>3.5</v>
+      </c>
+      <c r="H3">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-550</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>4.3</v>
+      </c>
+      <c r="D4">
+        <v>7.9</v>
+      </c>
+      <c r="E4">
+        <v>1.9</v>
+      </c>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-525</v>
+      </c>
+      <c r="B5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C5">
+        <v>4.3</v>
+      </c>
+      <c r="D5">
+        <v>5.2</v>
+      </c>
+      <c r="E5">
+        <v>6.1</v>
+      </c>
+      <c r="F5">
+        <v>1.9</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-500</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4.3</v>
+      </c>
+      <c r="F6">
+        <v>2.9</v>
+      </c>
+      <c r="G6">
+        <v>4.8</v>
+      </c>
+      <c r="H6">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-475</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>3.4</v>
+      </c>
+      <c r="D7">
+        <v>5.6</v>
+      </c>
+      <c r="E7">
+        <v>3.6</v>
+      </c>
+      <c r="F7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G7">
+        <v>5.6</v>
+      </c>
+      <c r="H7">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-450</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.7</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>3.6</v>
+      </c>
+      <c r="F8">
+        <v>2.1</v>
+      </c>
+      <c r="G8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H8">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-425</v>
+      </c>
+      <c r="B9">
+        <v>1.3</v>
+      </c>
+      <c r="C9">
+        <v>5.2</v>
+      </c>
+      <c r="D9">
+        <v>6.1</v>
+      </c>
+      <c r="E9">
+        <v>5.4</v>
+      </c>
+      <c r="F9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G9">
+        <v>4.8</v>
+      </c>
+      <c r="H9">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-400</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>4.8</v>
+      </c>
+      <c r="D10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E10">
+        <v>3.8</v>
+      </c>
+      <c r="F10">
+        <v>1.9</v>
+      </c>
+      <c r="G10">
+        <v>6.2</v>
+      </c>
+      <c r="H10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-375</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>2.1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F11">
+        <v>2.4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-350</v>
+      </c>
+      <c r="B12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C12">
+        <v>13.4</v>
+      </c>
+      <c r="D12">
+        <v>7.5</v>
+      </c>
+      <c r="E12">
+        <v>7.5</v>
+      </c>
+      <c r="F12">
+        <v>1.8</v>
+      </c>
+      <c r="G12">
+        <v>4.8</v>
+      </c>
+      <c r="H12">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-325</v>
+      </c>
+      <c r="B13">
+        <v>8.5</v>
+      </c>
+      <c r="C13">
+        <v>13.6</v>
+      </c>
+      <c r="D13">
+        <v>5.4</v>
+      </c>
+      <c r="E13">
+        <v>4.2</v>
+      </c>
+      <c r="F13">
+        <v>3.1</v>
+      </c>
+      <c r="G13">
+        <v>7.8</v>
+      </c>
+      <c r="H13">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-300</v>
+      </c>
+      <c r="B14">
+        <v>16.7</v>
+      </c>
+      <c r="C14">
+        <v>18.8</v>
+      </c>
+      <c r="D14">
+        <v>7.3</v>
+      </c>
+      <c r="E14">
+        <v>4.5</v>
+      </c>
+      <c r="F14">
+        <v>2.8</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-275</v>
+      </c>
+      <c r="B15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C15">
+        <v>26.2</v>
+      </c>
+      <c r="D15">
+        <v>20.5</v>
+      </c>
+      <c r="E15">
+        <v>6.4</v>
+      </c>
+      <c r="F15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G15">
+        <v>7.1</v>
+      </c>
+      <c r="H15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-250</v>
+      </c>
+      <c r="B16">
+        <v>18.2</v>
+      </c>
+      <c r="C16">
+        <v>23.6</v>
+      </c>
+      <c r="D16">
+        <v>25.4</v>
+      </c>
+      <c r="E16">
+        <v>7.4</v>
+      </c>
+      <c r="F16">
+        <v>3.5</v>
+      </c>
+      <c r="G16">
+        <v>6.6</v>
+      </c>
+      <c r="H16">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-225</v>
+      </c>
+      <c r="B17">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C17">
+        <v>28.5</v>
+      </c>
+      <c r="D17">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F17">
+        <v>4.2</v>
+      </c>
+      <c r="G17">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H17">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-200</v>
+      </c>
+      <c r="B18">
+        <v>13.4</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>22.7</v>
+      </c>
+      <c r="E18">
+        <v>11.7</v>
+      </c>
+      <c r="F18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-175</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>21.9</v>
+      </c>
+      <c r="D19">
+        <v>7.5</v>
+      </c>
+      <c r="E19">
+        <v>11.1</v>
+      </c>
+      <c r="F19">
+        <v>5.2</v>
+      </c>
+      <c r="G19">
+        <v>8.5</v>
+      </c>
+      <c r="H19">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-150</v>
+      </c>
+      <c r="B20">
+        <v>13.6</v>
+      </c>
+      <c r="C20">
+        <v>11.8</v>
+      </c>
+      <c r="D20">
+        <v>15.1</v>
+      </c>
+      <c r="E20">
+        <v>10.8</v>
+      </c>
+      <c r="F20">
+        <v>8.4</v>
+      </c>
+      <c r="G20">
+        <v>9.4</v>
+      </c>
+      <c r="H20">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-125</v>
+      </c>
+      <c r="B21">
+        <v>12.7</v>
+      </c>
+      <c r="C21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>8.6</v>
+      </c>
+      <c r="F21">
+        <v>7.6</v>
+      </c>
+      <c r="G21">
+        <v>10.1</v>
+      </c>
+      <c r="H21">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-100</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <v>20.7</v>
+      </c>
+      <c r="D22">
+        <v>13.4</v>
+      </c>
+      <c r="E22">
+        <v>8.1</v>
+      </c>
+      <c r="F22">
+        <v>9.4</v>
+      </c>
+      <c r="G22">
+        <v>11.3</v>
+      </c>
+      <c r="H22">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-75</v>
+      </c>
+      <c r="B23">
+        <v>4.2</v>
+      </c>
+      <c r="C23">
+        <v>10.4</v>
+      </c>
+      <c r="D23">
+        <v>12.6</v>
+      </c>
+      <c r="E23">
+        <v>10.9</v>
+      </c>
+      <c r="F23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G23">
+        <v>10.9</v>
+      </c>
+      <c r="H23">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-50</v>
+      </c>
+      <c r="B24">
+        <v>2.6</v>
+      </c>
+      <c r="C24">
+        <v>8.9</v>
+      </c>
+      <c r="D24">
+        <v>12.6</v>
+      </c>
+      <c r="E24">
+        <v>7.8</v>
+      </c>
+      <c r="F24">
+        <v>5.7</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-25</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D25">
+        <v>7.7</v>
+      </c>
+      <c r="E25">
+        <v>6.3</v>
+      </c>
+      <c r="F25">
+        <v>7.4</v>
+      </c>
+      <c r="G25">
+        <v>11.5</v>
+      </c>
+      <c r="H25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2.1</v>
+      </c>
+      <c r="C26">
+        <v>13.9</v>
+      </c>
+      <c r="D26">
+        <v>9.9</v>
+      </c>
+      <c r="E26">
+        <v>6.1</v>
+      </c>
+      <c r="F26">
+        <v>4.3</v>
+      </c>
+      <c r="G26">
+        <v>12.6</v>
+      </c>
+      <c r="H26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.8</v>
+      </c>
+      <c r="C27">
+        <v>4.8</v>
+      </c>
+      <c r="D27">
+        <v>9.4</v>
+      </c>
+      <c r="E27">
+        <v>5.4</v>
+      </c>
+      <c r="F27">
+        <v>5.6</v>
+      </c>
+      <c r="G27">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H27">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>5.7</v>
+      </c>
+      <c r="C28">
+        <v>10.7</v>
+      </c>
+      <c r="D28">
+        <v>7.6</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>3.6</v>
+      </c>
+      <c r="G28">
+        <v>8.9</v>
+      </c>
+      <c r="H28">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>0.4</v>
+      </c>
+      <c r="C29">
+        <v>6.9</v>
+      </c>
+      <c r="D29">
+        <v>5.5</v>
+      </c>
+      <c r="E29">
+        <v>4.8</v>
+      </c>
+      <c r="F29">
+        <v>4.8</v>
+      </c>
+      <c r="G29">
+        <v>13.9</v>
+      </c>
+      <c r="H29">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>0.3</v>
+      </c>
+      <c r="C30">
+        <v>7.7</v>
+      </c>
+      <c r="D30">
+        <v>4.2</v>
+      </c>
+      <c r="E30">
+        <v>3.6</v>
+      </c>
+      <c r="F30">
+        <v>2.1</v>
+      </c>
+      <c r="G30">
+        <v>7.9</v>
+      </c>
+      <c r="H30">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>125</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4.2</v>
+      </c>
+      <c r="D31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>1.8</v>
+      </c>
+      <c r="G31">
+        <v>7.6</v>
+      </c>
+      <c r="H31">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>0.8</v>
+      </c>
+      <c r="C32">
+        <v>6.7</v>
+      </c>
+      <c r="D32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F32">
+        <v>1.9</v>
+      </c>
+      <c r="G32">
+        <v>6.8</v>
+      </c>
+      <c r="H32">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>175</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2.6</v>
+      </c>
+      <c r="E33">
+        <v>2.5</v>
+      </c>
+      <c r="F33">
+        <v>1.4</v>
+      </c>
+      <c r="G33">
+        <v>6.5</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>1.6</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1.2</v>
+      </c>
+      <c r="G34">
+        <v>5.4</v>
+      </c>
+      <c r="H34">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>225</v>
+      </c>
+      <c r="B35">
+        <v>0.4</v>
+      </c>
+      <c r="C35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D35">
+        <v>1.5</v>
+      </c>
+      <c r="E35">
+        <v>1.4</v>
+      </c>
+      <c r="F35">
+        <v>1.3</v>
+      </c>
+      <c r="G35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H35">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>250</v>
+      </c>
+      <c r="B36">
+        <v>0.3</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>1.8</v>
+      </c>
+      <c r="E36">
+        <v>4.3</v>
+      </c>
+      <c r="F36">
+        <v>2.8</v>
+      </c>
+      <c r="G36">
+        <v>4.8</v>
+      </c>
+      <c r="H36">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>275</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+      <c r="C37">
+        <v>1.2</v>
+      </c>
+      <c r="D37">
+        <v>1.8</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+      <c r="F37">
+        <v>1.5</v>
+      </c>
+      <c r="G37">
+        <v>3.5</v>
+      </c>
+      <c r="H37">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>0.4</v>
+      </c>
+      <c r="C38">
+        <v>0.3</v>
+      </c>
+      <c r="D38">
+        <v>0.6</v>
+      </c>
+      <c r="E38">
+        <v>0.9</v>
+      </c>
+      <c r="F38">
+        <v>0.7</v>
+      </c>
+      <c r="G38">
+        <v>3.3</v>
+      </c>
+      <c r="H38">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>325</v>
+      </c>
+      <c r="B39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>350</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1.2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.3</v>
+      </c>
+      <c r="F40">
+        <v>0.7</v>
+      </c>
+      <c r="G40">
+        <v>2.7</v>
+      </c>
+      <c r="H40">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>375</v>
+      </c>
+      <c r="B41">
+        <v>0.1</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>2.1</v>
+      </c>
+      <c r="G41">
+        <v>2.4</v>
+      </c>
+      <c r="H41">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <v>0.4</v>
+      </c>
+      <c r="C42">
+        <v>0.4</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.3</v>
+      </c>
+      <c r="F42">
+        <v>0.4</v>
+      </c>
+      <c r="G42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H42">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>425</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+      <c r="E43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43">
+        <v>2.8</v>
+      </c>
+      <c r="H43">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>450</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+      <c r="E44">
+        <v>0.2</v>
+      </c>
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+      <c r="G44">
+        <v>1.9</v>
+      </c>
+      <c r="H44">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>475</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.4</v>
+      </c>
+      <c r="F45">
+        <v>0.2</v>
+      </c>
+      <c r="G45">
+        <v>1.4</v>
+      </c>
+      <c r="H45">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>500</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.4</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+      <c r="G46">
+        <v>1.6</v>
+      </c>
+      <c r="H46">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>525</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.2</v>
+      </c>
+      <c r="F47">
+        <v>0.2</v>
+      </c>
+      <c r="G47">
+        <v>1.2</v>
+      </c>
+      <c r="H47">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>550</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.3</v>
+      </c>
+      <c r="F48">
+        <v>0.1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>575</v>
+      </c>
+      <c r="B49">
+        <v>0.3</v>
+      </c>
+      <c r="C49">
+        <v>0.1</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49">
+        <v>0.4</v>
+      </c>
+      <c r="F49">
+        <v>0.2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>600</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.2</v>
+      </c>
+      <c r="F50">
+        <v>0.1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>625</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+      <c r="G51">
+        <v>0.8</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>650</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
+        <v>0.2</v>
+      </c>
+      <c r="G52">
+        <v>0.7</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>675</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.1</v>
+      </c>
+      <c r="G53">
+        <v>0.7</v>
+      </c>
+      <c r="H53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>700</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>0.1</v>
+      </c>
+      <c r="G54">
+        <v>0.6</v>
+      </c>
+      <c r="H54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>725</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55">
+        <v>0.1</v>
+      </c>
+      <c r="G55">
+        <v>0.6</v>
+      </c>
+      <c r="H55">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>750</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.7</v>
+      </c>
+      <c r="G56">
+        <v>0.6</v>
+      </c>
+      <c r="H56">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>775</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.3</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>800</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.4</v>
+      </c>
+      <c r="H58">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>825</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.1</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+      <c r="H59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>850</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+      <c r="F60">
+        <v>0.1</v>
+      </c>
+      <c r="G60">
+        <v>0.3</v>
+      </c>
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>875</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.3</v>
+      </c>
+      <c r="H61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>900</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.4</v>
+      </c>
+      <c r="H62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>925</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.2</v>
+      </c>
+      <c r="G63">
+        <v>0.3</v>
+      </c>
+      <c r="H63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>950</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0.2</v>
+      </c>
+      <c r="H64">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>975</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.3</v>
+      </c>
+      <c r="H65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1000</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.3</v>
+      </c>
+      <c r="H66">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1025</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.2</v>
+      </c>
+      <c r="H67">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1050</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.1</v>
+      </c>
+      <c r="H68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1075</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.2</v>
+      </c>
+      <c r="H69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1100</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.1</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1125</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.1</v>
+      </c>
+      <c r="F71">
+        <v>0.1</v>
+      </c>
+      <c r="G71">
+        <v>1.6</v>
+      </c>
+      <c r="H71">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1150</v>
+      </c>
+      <c r="B72">
+        <v>179.5</v>
+      </c>
+      <c r="C72">
+        <v>373.5</v>
+      </c>
+      <c r="D72">
+        <v>352.2</v>
+      </c>
+      <c r="E72">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="F72">
+        <v>191.5</v>
+      </c>
+      <c r="G72">
+        <v>366</v>
+      </c>
+      <c r="H72">
+        <v>1729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-600</v>
+      </c>
+      <c r="B2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2">
+        <v>3.1</v>
+      </c>
+      <c r="D2">
+        <v>22.2</v>
+      </c>
+      <c r="E2">
+        <v>8.5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H2">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-575</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>3.1</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-550</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>1.8</v>
+      </c>
+      <c r="F4">
+        <v>0.9</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-525</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>1.7</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-500</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>3.3</v>
+      </c>
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+      <c r="G6">
+        <v>0.6</v>
+      </c>
+      <c r="H6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-475</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+      <c r="D7">
+        <v>5.3</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-450</v>
+      </c>
+      <c r="B8">
+        <v>2.4</v>
+      </c>
+      <c r="C8">
+        <v>4.2</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>3.3</v>
+      </c>
+      <c r="F8">
+        <v>1.9</v>
+      </c>
+      <c r="G8">
+        <v>6.2</v>
+      </c>
+      <c r="H8">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-425</v>
+      </c>
+      <c r="B9">
+        <v>2.1</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>3.1</v>
+      </c>
+      <c r="E9">
+        <v>4.8</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <v>1.3</v>
+      </c>
+      <c r="H9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-400</v>
+      </c>
+      <c r="B10">
+        <v>1.4</v>
+      </c>
+      <c r="C10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F10">
+        <v>2.1</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-375</v>
+      </c>
+      <c r="B11">
+        <v>1.9</v>
+      </c>
+      <c r="C11">
+        <v>4.3</v>
+      </c>
+      <c r="D11">
+        <v>4.8</v>
+      </c>
+      <c r="E11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>2.1</v>
+      </c>
+      <c r="G11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-350</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12">
+        <v>5.2</v>
+      </c>
+      <c r="D12">
+        <v>6.9</v>
+      </c>
+      <c r="E12">
+        <v>2.9</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-325</v>
+      </c>
+      <c r="B13">
+        <v>1.2</v>
+      </c>
+      <c r="C13">
+        <v>3.2</v>
+      </c>
+      <c r="D13">
+        <v>3.9</v>
+      </c>
+      <c r="E13">
+        <v>3.1</v>
+      </c>
+      <c r="F13">
+        <v>1.7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-300</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>6.3</v>
+      </c>
+      <c r="D14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.9</v>
+      </c>
+      <c r="H14">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-275</v>
+      </c>
+      <c r="B15">
+        <v>0.3</v>
+      </c>
+      <c r="C15">
+        <v>6.8</v>
+      </c>
+      <c r="D15">
+        <v>8.9</v>
+      </c>
+      <c r="E15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F15">
+        <v>1.4</v>
+      </c>
+      <c r="G15">
+        <v>3.7</v>
+      </c>
+      <c r="H15">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-250</v>
+      </c>
+      <c r="B16">
+        <v>10.3</v>
+      </c>
+      <c r="C16">
+        <v>13.2</v>
+      </c>
+      <c r="D16">
+        <v>6.3</v>
+      </c>
+      <c r="E16">
+        <v>3.1</v>
+      </c>
+      <c r="F16">
+        <v>2.7</v>
+      </c>
+      <c r="G16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H16">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-225</v>
+      </c>
+      <c r="B17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C17">
+        <v>10.6</v>
+      </c>
+      <c r="D17">
+        <v>3.9</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>6.6</v>
+      </c>
+      <c r="G17">
+        <v>2.1</v>
+      </c>
+      <c r="H17">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-200</v>
+      </c>
+      <c r="B18">
+        <v>17.3</v>
+      </c>
+      <c r="C18">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>4.8</v>
+      </c>
+      <c r="F18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18">
+        <v>2.5</v>
+      </c>
+      <c r="H18">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-175</v>
+      </c>
+      <c r="B19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+      <c r="D19">
+        <v>9.1</v>
+      </c>
+      <c r="E19">
+        <v>10.9</v>
+      </c>
+      <c r="F19">
+        <v>3.4</v>
+      </c>
+      <c r="G19">
+        <v>2.9</v>
+      </c>
+      <c r="H19">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-150</v>
+      </c>
+      <c r="B20">
+        <v>17.7</v>
+      </c>
+      <c r="C20">
+        <v>21.8</v>
+      </c>
+      <c r="D20">
+        <v>10.3</v>
+      </c>
+      <c r="E20">
+        <v>6.7</v>
+      </c>
+      <c r="F20">
+        <v>3.2</v>
+      </c>
+      <c r="G20">
+        <v>3.3</v>
+      </c>
+      <c r="H20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-125</v>
+      </c>
+      <c r="B21">
+        <v>16.5</v>
+      </c>
+      <c r="C21">
+        <v>29.2</v>
+      </c>
+      <c r="D21">
+        <v>6.9</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-100</v>
+      </c>
+      <c r="B22">
+        <v>14.5</v>
+      </c>
+      <c r="C22">
+        <v>21.4</v>
+      </c>
+      <c r="D22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E22">
+        <v>4.7</v>
+      </c>
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+      <c r="G22">
+        <v>1.9</v>
+      </c>
+      <c r="H22">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-75</v>
+      </c>
+      <c r="B23">
+        <v>13.9</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>6.4</v>
+      </c>
+      <c r="E23">
+        <v>3.9</v>
+      </c>
+      <c r="F23">
+        <v>3.5</v>
+      </c>
+      <c r="G23">
+        <v>6.4</v>
+      </c>
+      <c r="H23">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-50</v>
+      </c>
+      <c r="B24">
+        <v>13.5</v>
+      </c>
+      <c r="C24">
+        <v>13.9</v>
+      </c>
+      <c r="D24">
+        <v>18.3</v>
+      </c>
+      <c r="E24">
+        <v>7.1</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H24">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-25</v>
+      </c>
+      <c r="B25">
+        <v>12.5</v>
+      </c>
+      <c r="C25">
+        <v>17.8</v>
+      </c>
+      <c r="D25">
+        <v>14.2</v>
+      </c>
+      <c r="E25">
+        <v>6.4</v>
+      </c>
+      <c r="F25">
+        <v>1.7</v>
+      </c>
+      <c r="G25">
+        <v>2.9</v>
+      </c>
+      <c r="H25">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2.7</v>
+      </c>
+      <c r="C26">
+        <v>21.9</v>
+      </c>
+      <c r="D26">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F26">
+        <v>1.8</v>
+      </c>
+      <c r="G26">
+        <v>4.5</v>
+      </c>
+      <c r="H26">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2.6</v>
+      </c>
+      <c r="C27">
+        <v>12.8</v>
+      </c>
+      <c r="D27">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F27">
+        <v>1.7</v>
+      </c>
+      <c r="G27">
+        <v>3.7</v>
+      </c>
+      <c r="H27">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>3.2</v>
+      </c>
+      <c r="C28">
+        <v>12.8</v>
+      </c>
+      <c r="D28">
+        <v>12.8</v>
+      </c>
+      <c r="E28">
+        <v>5.8</v>
+      </c>
+      <c r="F28">
+        <v>1.9</v>
+      </c>
+      <c r="G28">
+        <v>3.7</v>
+      </c>
+      <c r="H28">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>12.1</v>
+      </c>
+      <c r="E29">
+        <v>13.8</v>
+      </c>
+      <c r="F29">
+        <v>1.9</v>
+      </c>
+      <c r="G29">
+        <v>5.4</v>
+      </c>
+      <c r="H29">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>0.4</v>
+      </c>
+      <c r="C30">
+        <v>12.8</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>7.3</v>
+      </c>
+      <c r="F30">
+        <v>3.1</v>
+      </c>
+      <c r="G30">
+        <v>5.4</v>
+      </c>
+      <c r="H30">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>125</v>
+      </c>
+      <c r="B31">
+        <v>3.7</v>
+      </c>
+      <c r="C31">
+        <v>4.3</v>
+      </c>
+      <c r="D31">
+        <v>15.3</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>10.5</v>
+      </c>
+      <c r="G31">
+        <v>6.8</v>
+      </c>
+      <c r="H31">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>10.4</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>10.4</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>6.1</v>
+      </c>
+      <c r="H32">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>175</v>
+      </c>
+      <c r="B33">
+        <v>0.4</v>
+      </c>
+      <c r="C33">
+        <v>6.6</v>
+      </c>
+      <c r="D33">
+        <v>14.2</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>3.5</v>
+      </c>
+      <c r="G33">
+        <v>6.4</v>
+      </c>
+      <c r="H33">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>0.3</v>
+      </c>
+      <c r="C34">
+        <v>10.6</v>
+      </c>
+      <c r="D34">
+        <v>17.5</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G34">
+        <v>7.8</v>
+      </c>
+      <c r="H34">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>225</v>
+      </c>
+      <c r="B35">
+        <v>0.2</v>
+      </c>
+      <c r="C35">
+        <v>3.1</v>
+      </c>
+      <c r="D35">
+        <v>11.3</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>7.6</v>
+      </c>
+      <c r="G35">
+        <v>7.8</v>
+      </c>
+      <c r="H35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>250</v>
+      </c>
+      <c r="B36">
+        <v>0.8</v>
+      </c>
+      <c r="C36">
+        <v>8.4</v>
+      </c>
+      <c r="D36">
+        <v>8.5</v>
+      </c>
+      <c r="E36">
+        <v>10.6</v>
+      </c>
+      <c r="F36">
+        <v>7.8</v>
+      </c>
+      <c r="G36">
+        <v>8.4</v>
+      </c>
+      <c r="H36">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>275</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D37">
+        <v>5.3</v>
+      </c>
+      <c r="E37">
+        <v>5.5</v>
+      </c>
+      <c r="F37">
+        <v>5.8</v>
+      </c>
+      <c r="G37">
+        <v>12.1</v>
+      </c>
+      <c r="H37">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>1.6</v>
+      </c>
+      <c r="C38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D38">
+        <v>7.1</v>
+      </c>
+      <c r="E38">
+        <v>6.5</v>
+      </c>
+      <c r="F38">
+        <v>7.6</v>
+      </c>
+      <c r="G38">
+        <v>11.4</v>
+      </c>
+      <c r="H38">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>325</v>
+      </c>
+      <c r="B39">
+        <v>0.4</v>
+      </c>
+      <c r="C39">
+        <v>2.5</v>
+      </c>
+      <c r="D39">
+        <v>5.5</v>
+      </c>
+      <c r="E39">
+        <v>5.6</v>
+      </c>
+      <c r="F39">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G39">
+        <v>12.1</v>
+      </c>
+      <c r="H39">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>350</v>
+      </c>
+      <c r="B40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C40">
+        <v>1.6</v>
+      </c>
+      <c r="D40">
+        <v>5.8</v>
+      </c>
+      <c r="E40">
+        <v>6.1</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>12.9</v>
+      </c>
+      <c r="H40">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>375</v>
+      </c>
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+      <c r="C41">
+        <v>1.9</v>
+      </c>
+      <c r="D41">
+        <v>4.5</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>7.7</v>
+      </c>
+      <c r="G41">
+        <v>15.5</v>
+      </c>
+      <c r="H41">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <v>0.4</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D42">
+        <v>5.6</v>
+      </c>
+      <c r="E42">
+        <v>4.2</v>
+      </c>
+      <c r="F42">
+        <v>4.7</v>
+      </c>
+      <c r="G42">
+        <v>15.2</v>
+      </c>
+      <c r="H42">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>425</v>
+      </c>
+      <c r="B43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E43">
+        <v>3.2</v>
+      </c>
+      <c r="F43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G43">
+        <v>13.1</v>
+      </c>
+      <c r="H43">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>450</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1.7</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>3.2</v>
+      </c>
+      <c r="F44">
+        <v>4.2</v>
+      </c>
+      <c r="G44">
+        <v>12.2</v>
+      </c>
+      <c r="H44">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>475</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
+        <v>0.7</v>
+      </c>
+      <c r="D45">
+        <v>2.7</v>
+      </c>
+      <c r="E45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F45">
+        <v>6.4</v>
+      </c>
+      <c r="G45">
+        <v>11.5</v>
+      </c>
+      <c r="H45">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>500</v>
+      </c>
+      <c r="B46">
+        <v>0.4</v>
+      </c>
+      <c r="C46">
+        <v>0.6</v>
+      </c>
+      <c r="D46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E46">
+        <v>1.5</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>10.8</v>
+      </c>
+      <c r="H46">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>525</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <v>0.7</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <v>6.5</v>
+      </c>
+      <c r="F47">
+        <v>2.7</v>
+      </c>
+      <c r="G47">
+        <v>10.4</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>550</v>
+      </c>
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <v>5.8</v>
+      </c>
+      <c r="F48">
+        <v>3.7</v>
+      </c>
+      <c r="G48">
+        <v>9.4</v>
+      </c>
+      <c r="H48">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>575</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49">
+        <v>1.3</v>
+      </c>
+      <c r="F49">
+        <v>2.5</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>600</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.2</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
+      <c r="E50">
+        <v>2.4</v>
+      </c>
+      <c r="F50">
+        <v>3.9</v>
+      </c>
+      <c r="G50">
+        <v>7.9</v>
+      </c>
+      <c r="H50">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>625</v>
+      </c>
+      <c r="B51">
+        <v>0.1</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.6</v>
+      </c>
+      <c r="F51">
+        <v>2.5</v>
+      </c>
+      <c r="G51">
+        <v>6.5</v>
+      </c>
+      <c r="H51">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>650</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.9</v>
+      </c>
+      <c r="F52">
+        <v>3.4</v>
+      </c>
+      <c r="G52">
+        <v>12.3</v>
+      </c>
+      <c r="H52">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>675</v>
+      </c>
+      <c r="B53">
+        <v>0.3</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <v>1.9</v>
+      </c>
+      <c r="G53">
+        <v>5.7</v>
+      </c>
+      <c r="H53">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>700</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.9</v>
+      </c>
+      <c r="F54">
+        <v>1.7</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>725</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.4</v>
+      </c>
+      <c r="F55">
+        <v>1.8</v>
+      </c>
+      <c r="G55">
+        <v>4.7</v>
+      </c>
+      <c r="H55">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>750</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.4</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H56">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>775</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.1</v>
+      </c>
+      <c r="E57">
+        <v>0.2</v>
+      </c>
+      <c r="F57">
+        <v>2.5</v>
+      </c>
+      <c r="G57">
+        <v>3.5</v>
+      </c>
+      <c r="H57">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>800</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0.2</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+      <c r="G58">
+        <v>3.2</v>
+      </c>
+      <c r="H58">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>825</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>0.6</v>
+      </c>
+      <c r="G59">
+        <v>3.1</v>
+      </c>
+      <c r="H59">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>850</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.2</v>
+      </c>
+      <c r="F60">
+        <v>0.6</v>
+      </c>
+      <c r="G60">
+        <v>2.8</v>
+      </c>
+      <c r="H60">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>875</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.1</v>
+      </c>
+      <c r="F61">
+        <v>0.3</v>
+      </c>
+      <c r="G61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H61">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>900</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1.5</v>
+      </c>
+      <c r="F62">
+        <v>0.3</v>
+      </c>
+      <c r="G62">
+        <v>2.5</v>
+      </c>
+      <c r="H62">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>925</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0.3</v>
+      </c>
+      <c r="E63">
+        <v>0.1</v>
+      </c>
+      <c r="F63">
+        <v>0.2</v>
+      </c>
+      <c r="G63">
+        <v>2.4</v>
+      </c>
+      <c r="H63">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>950</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.1</v>
+      </c>
+      <c r="F64">
+        <v>0.3</v>
+      </c>
+      <c r="G64">
+        <v>1.8</v>
+      </c>
+      <c r="H64">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>975</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.1</v>
+      </c>
+      <c r="F65">
+        <v>0.3</v>
+      </c>
+      <c r="G65">
+        <v>1.8</v>
+      </c>
+      <c r="H65">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1000</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.2</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.2</v>
+      </c>
+      <c r="F66">
+        <v>0.2</v>
+      </c>
+      <c r="G66">
+        <v>1.5</v>
+      </c>
+      <c r="H66">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1025</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.1</v>
+      </c>
+      <c r="G67">
+        <v>1.3</v>
+      </c>
+      <c r="H67">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1050</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
+        <v>1.3</v>
+      </c>
+      <c r="H68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1075</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.1</v>
+      </c>
+      <c r="F69">
+        <v>0.1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1100</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1125</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.3</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1150</v>
+      </c>
+      <c r="B72">
+        <v>180.1</v>
+      </c>
+      <c r="C72">
+        <v>375</v>
+      </c>
+      <c r="D72">
+        <v>352.2</v>
+      </c>
+      <c r="E72">
+        <v>266.8</v>
+      </c>
+      <c r="F72">
+        <v>190.8</v>
+      </c>
+      <c r="G72">
+        <v>364.2</v>
+      </c>
+      <c r="H72">
+        <v>1729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>307</v>
+      </c>
+      <c r="C3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>305</v>
+      </c>
+      <c r="C4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>230</v>
+      </c>
+      <c r="C5">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>195</v>
+      </c>
+      <c r="C6">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>201</v>
+      </c>
+      <c r="C9">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CTaxCosts.xlsx
+++ b/CTaxCosts.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NetCosts" sheetId="1" r:id="rId1"/>
     <sheet name="NetCostwithFed" sheetId="2" r:id="rId2"/>
     <sheet name="NetCostwithFedx2" sheetId="3" r:id="rId3"/>
     <sheet name="NetCostsx2" sheetId="5" r:id="rId4"/>
-    <sheet name="Rebates" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>All</t>
   </si>
@@ -52,33 +51,6 @@
   </si>
   <si>
     <t>&gt;$150k</t>
-  </si>
-  <si>
-    <t>Household Income Group</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>Min-30000</t>
-  </si>
-  <si>
-    <t>30001-60000</t>
-  </si>
-  <si>
-    <t>60001-90000</t>
-  </si>
-  <si>
-    <t>90001-120000</t>
-  </si>
-  <si>
-    <t>120001-150000</t>
-  </si>
-  <si>
-    <t>150001-Max</t>
-  </si>
-  <si>
-    <t>Federal</t>
   </si>
 </sst>
 </file>
@@ -131,947 +103,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Rebates!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alberta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Rebates!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4049-46FD-8AD1-BBFB360A3894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Rebates!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Federal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Rebates!$C$3:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>639</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>659</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4049-46FD-8AD1-BBFB360A3894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="454381688"/>
-        <c:axId val="454381360"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="454381688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="454381360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="454381360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="454381688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1339,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
@@ -8985,111 +8016,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>307</v>
-      </c>
-      <c r="C3">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>305</v>
-      </c>
-      <c r="C4">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>230</v>
-      </c>
-      <c r="C5">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>195</v>
-      </c>
-      <c r="C6">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>201</v>
-      </c>
-      <c r="C9">
-        <v>573</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/CTaxCosts.xlsx
+++ b/CTaxCosts.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttombe\Documents\R Projects\CTax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\trevo\Documents\R Projects\CTax\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C38BC5-A5BF-4A18-AAAD-8EEF73AB996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NetCosts" sheetId="1" r:id="rId1"/>
     <sheet name="NetCostwithFed" sheetId="2" r:id="rId2"/>
     <sheet name="NetCostwithFedx2" sheetId="3" r:id="rId3"/>
     <sheet name="NetCostsx2" sheetId="5" r:id="rId4"/>
+    <sheet name="NetCostsBC2022" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>All</t>
   </si>
@@ -56,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,11 +379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:C72"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,11 +2266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H75" sqref="H1:H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,7 +4257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
@@ -6132,7 +6144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -8016,4 +8028,3139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4686EBAA-D6B6-4BBE-B9D6-87DD64F7CDDE}">
+  <dimension ref="A1:H120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-600</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-575</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-550</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-525</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-500</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-475</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-450</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-425</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-400</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-375</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-350</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-325</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-300</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>2.7</v>
+      </c>
+      <c r="E14">
+        <v>0.4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-275</v>
+      </c>
+      <c r="B15">
+        <v>2.6</v>
+      </c>
+      <c r="C15">
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-250</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>2.4</v>
+      </c>
+      <c r="D16">
+        <v>1.2</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-225</v>
+      </c>
+      <c r="B17">
+        <v>1.3</v>
+      </c>
+      <c r="C17">
+        <v>4.3</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-200</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1.9</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-175</v>
+      </c>
+      <c r="B19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-150</v>
+      </c>
+      <c r="B20">
+        <v>3.7</v>
+      </c>
+      <c r="C20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-125</v>
+      </c>
+      <c r="B21">
+        <v>2.9</v>
+      </c>
+      <c r="C21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D21">
+        <v>3.9</v>
+      </c>
+      <c r="E21">
+        <v>0.3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-100</v>
+      </c>
+      <c r="B22">
+        <v>15.9</v>
+      </c>
+      <c r="C22">
+        <v>7.6</v>
+      </c>
+      <c r="D22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-75</v>
+      </c>
+      <c r="B23">
+        <v>28.4</v>
+      </c>
+      <c r="C23">
+        <v>13.9</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.3</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-50</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+      <c r="H24">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-25</v>
+      </c>
+      <c r="B25">
+        <v>17.8</v>
+      </c>
+      <c r="C25">
+        <v>13.7</v>
+      </c>
+      <c r="D25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.4</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>17.2</v>
+      </c>
+      <c r="C26">
+        <v>11.4</v>
+      </c>
+      <c r="D26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E26">
+        <v>2.4</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>16.7</v>
+      </c>
+      <c r="C27">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.9</v>
+      </c>
+      <c r="E27">
+        <v>0.7</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>14.2</v>
+      </c>
+      <c r="C28">
+        <v>14.3</v>
+      </c>
+      <c r="D28">
+        <v>3.7</v>
+      </c>
+      <c r="E28">
+        <v>0.6</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>0.6</v>
+      </c>
+      <c r="H28">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>13.8</v>
+      </c>
+      <c r="D29">
+        <v>2.8</v>
+      </c>
+      <c r="E29">
+        <v>0.4</v>
+      </c>
+      <c r="F29">
+        <v>0.3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>22.7</v>
+      </c>
+      <c r="C30">
+        <v>15.1</v>
+      </c>
+      <c r="D30">
+        <v>9.1</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <v>0.3</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>125</v>
+      </c>
+      <c r="B31">
+        <v>13.7</v>
+      </c>
+      <c r="C31">
+        <v>8.6</v>
+      </c>
+      <c r="D31">
+        <v>4.2</v>
+      </c>
+      <c r="E31">
+        <v>2.6</v>
+      </c>
+      <c r="F31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>17.7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>4.8</v>
+      </c>
+      <c r="F32">
+        <v>2.6</v>
+      </c>
+      <c r="G32">
+        <v>1.2</v>
+      </c>
+      <c r="H32">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>175</v>
+      </c>
+      <c r="B33">
+        <v>12.2</v>
+      </c>
+      <c r="C33">
+        <v>14.6</v>
+      </c>
+      <c r="D33">
+        <v>10.1</v>
+      </c>
+      <c r="E33">
+        <v>1.4</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>3.4</v>
+      </c>
+      <c r="H33">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>7.4</v>
+      </c>
+      <c r="C34">
+        <v>12.8</v>
+      </c>
+      <c r="D34">
+        <v>6.5</v>
+      </c>
+      <c r="E34">
+        <v>3.9</v>
+      </c>
+      <c r="F34">
+        <v>1.3</v>
+      </c>
+      <c r="G34">
+        <v>1.7</v>
+      </c>
+      <c r="H34">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>225</v>
+      </c>
+      <c r="B35">
+        <v>3.9</v>
+      </c>
+      <c r="C35">
+        <v>11.9</v>
+      </c>
+      <c r="D35">
+        <v>7.9</v>
+      </c>
+      <c r="E35">
+        <v>4.3</v>
+      </c>
+      <c r="F35">
+        <v>1.2</v>
+      </c>
+      <c r="G35">
+        <v>1.6</v>
+      </c>
+      <c r="H35">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>250</v>
+      </c>
+      <c r="B36">
+        <v>7.6</v>
+      </c>
+      <c r="C36">
+        <v>21.2</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>9.4</v>
+      </c>
+      <c r="F36">
+        <v>1.8</v>
+      </c>
+      <c r="G36">
+        <v>2.1</v>
+      </c>
+      <c r="H36">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>275</v>
+      </c>
+      <c r="B37">
+        <v>8.1</v>
+      </c>
+      <c r="C37">
+        <v>14.5</v>
+      </c>
+      <c r="D37">
+        <v>9.4</v>
+      </c>
+      <c r="E37">
+        <v>4.3</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>5.8</v>
+      </c>
+      <c r="H37">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>8.4</v>
+      </c>
+      <c r="C38">
+        <v>14.8</v>
+      </c>
+      <c r="D38">
+        <v>21.3</v>
+      </c>
+      <c r="E38">
+        <v>5.9</v>
+      </c>
+      <c r="F38">
+        <v>3.4</v>
+      </c>
+      <c r="G38">
+        <v>2.7</v>
+      </c>
+      <c r="H38">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>325</v>
+      </c>
+      <c r="B39">
+        <v>6.5</v>
+      </c>
+      <c r="C39">
+        <v>13.2</v>
+      </c>
+      <c r="D39">
+        <v>7.9</v>
+      </c>
+      <c r="E39">
+        <v>7.1</v>
+      </c>
+      <c r="F39">
+        <v>2.5</v>
+      </c>
+      <c r="G39">
+        <v>3.3</v>
+      </c>
+      <c r="H39">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>350</v>
+      </c>
+      <c r="B40">
+        <v>1.3</v>
+      </c>
+      <c r="C40">
+        <v>6.4</v>
+      </c>
+      <c r="D40">
+        <v>12.4</v>
+      </c>
+      <c r="E40">
+        <v>6.9</v>
+      </c>
+      <c r="F40">
+        <v>4.8</v>
+      </c>
+      <c r="G40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H40">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>375</v>
+      </c>
+      <c r="B41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C41">
+        <v>8.6</v>
+      </c>
+      <c r="D41">
+        <v>18.5</v>
+      </c>
+      <c r="E41">
+        <v>13.7</v>
+      </c>
+      <c r="F41">
+        <v>3.5</v>
+      </c>
+      <c r="G41">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H41">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <v>3.4</v>
+      </c>
+      <c r="C42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D42">
+        <v>14.1</v>
+      </c>
+      <c r="E42">
+        <v>9.5</v>
+      </c>
+      <c r="F42">
+        <v>7.2</v>
+      </c>
+      <c r="G42">
+        <v>4.3</v>
+      </c>
+      <c r="H42">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>425</v>
+      </c>
+      <c r="B43">
+        <v>0.3</v>
+      </c>
+      <c r="C43">
+        <v>6.6</v>
+      </c>
+      <c r="D43">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>5.2</v>
+      </c>
+      <c r="H43">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>450</v>
+      </c>
+      <c r="B44">
+        <v>1.2</v>
+      </c>
+      <c r="C44">
+        <v>3.6</v>
+      </c>
+      <c r="D44">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E44">
+        <v>10.9</v>
+      </c>
+      <c r="F44">
+        <v>6.3</v>
+      </c>
+      <c r="G44">
+        <v>7.9</v>
+      </c>
+      <c r="H44">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>475</v>
+      </c>
+      <c r="B45">
+        <v>2.4</v>
+      </c>
+      <c r="C45">
+        <v>9.6</v>
+      </c>
+      <c r="D45">
+        <v>7.3</v>
+      </c>
+      <c r="E45">
+        <v>5.9</v>
+      </c>
+      <c r="F45">
+        <v>6.4</v>
+      </c>
+      <c r="G45">
+        <v>6.5</v>
+      </c>
+      <c r="H45">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>500</v>
+      </c>
+      <c r="B46">
+        <v>1.9</v>
+      </c>
+      <c r="C46">
+        <v>4.2</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>8.1</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>7.1</v>
+      </c>
+      <c r="H46">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>525</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>3.2</v>
+      </c>
+      <c r="D47">
+        <v>13.1</v>
+      </c>
+      <c r="E47">
+        <v>10.8</v>
+      </c>
+      <c r="F47">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G47">
+        <v>9.1</v>
+      </c>
+      <c r="H47">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>550</v>
+      </c>
+      <c r="B48">
+        <v>0.6</v>
+      </c>
+      <c r="C48">
+        <v>3.9</v>
+      </c>
+      <c r="D48">
+        <v>3.6</v>
+      </c>
+      <c r="E48">
+        <v>5.3</v>
+      </c>
+      <c r="F48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G48">
+        <v>8.1</v>
+      </c>
+      <c r="H48">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>575</v>
+      </c>
+      <c r="B49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>12.4</v>
+      </c>
+      <c r="F49">
+        <v>5.4</v>
+      </c>
+      <c r="G49">
+        <v>10.3</v>
+      </c>
+      <c r="H49">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>600</v>
+      </c>
+      <c r="B50">
+        <v>1.2</v>
+      </c>
+      <c r="C50">
+        <v>3.4</v>
+      </c>
+      <c r="D50">
+        <v>6.7</v>
+      </c>
+      <c r="E50">
+        <v>10.5</v>
+      </c>
+      <c r="F50">
+        <v>5.6</v>
+      </c>
+      <c r="G50">
+        <v>10.4</v>
+      </c>
+      <c r="H50">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>625</v>
+      </c>
+      <c r="B51">
+        <v>0.1</v>
+      </c>
+      <c r="C51">
+        <v>0.8</v>
+      </c>
+      <c r="D51">
+        <v>10.1</v>
+      </c>
+      <c r="E51">
+        <v>10.7</v>
+      </c>
+      <c r="F51">
+        <v>4.2</v>
+      </c>
+      <c r="G51">
+        <v>9.6</v>
+      </c>
+      <c r="H51">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>650</v>
+      </c>
+      <c r="B52">
+        <v>1.5</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>10.9</v>
+      </c>
+      <c r="E52">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F52">
+        <v>3.8</v>
+      </c>
+      <c r="G52">
+        <v>10.8</v>
+      </c>
+      <c r="H52">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>675</v>
+      </c>
+      <c r="B53">
+        <v>1.5</v>
+      </c>
+      <c r="C53">
+        <v>2.1</v>
+      </c>
+      <c r="D53">
+        <v>13.5</v>
+      </c>
+      <c r="E53">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F53">
+        <v>7.7</v>
+      </c>
+      <c r="G53">
+        <v>7.9</v>
+      </c>
+      <c r="H53">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>700</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>2.1</v>
+      </c>
+      <c r="D54">
+        <v>4.8</v>
+      </c>
+      <c r="E54">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F54">
+        <v>6.5</v>
+      </c>
+      <c r="G54">
+        <v>11.8</v>
+      </c>
+      <c r="H54">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>725</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>6.1</v>
+      </c>
+      <c r="D55">
+        <v>5.3</v>
+      </c>
+      <c r="E55">
+        <v>5.8</v>
+      </c>
+      <c r="F55">
+        <v>7.4</v>
+      </c>
+      <c r="G55">
+        <v>10.6</v>
+      </c>
+      <c r="H55">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>750</v>
+      </c>
+      <c r="B56">
+        <v>0.4</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3.3</v>
+      </c>
+      <c r="E56">
+        <v>11.6</v>
+      </c>
+      <c r="F56">
+        <v>3.4</v>
+      </c>
+      <c r="G56">
+        <v>12.1</v>
+      </c>
+      <c r="H56">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>775</v>
+      </c>
+      <c r="B57">
+        <v>0.3</v>
+      </c>
+      <c r="C57">
+        <v>0.9</v>
+      </c>
+      <c r="D57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E57">
+        <v>3.2</v>
+      </c>
+      <c r="F57">
+        <v>4.7</v>
+      </c>
+      <c r="G57">
+        <v>15.2</v>
+      </c>
+      <c r="H57">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>800</v>
+      </c>
+      <c r="B58">
+        <v>0.3</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>6.3</v>
+      </c>
+      <c r="E58">
+        <v>7.1</v>
+      </c>
+      <c r="F58">
+        <v>2.7</v>
+      </c>
+      <c r="G58">
+        <v>14.2</v>
+      </c>
+      <c r="H58">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>825</v>
+      </c>
+      <c r="B59">
+        <v>0.1</v>
+      </c>
+      <c r="C59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E59">
+        <v>2.1</v>
+      </c>
+      <c r="F59">
+        <v>3.1</v>
+      </c>
+      <c r="G59">
+        <v>11.8</v>
+      </c>
+      <c r="H59">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>850</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>2.7</v>
+      </c>
+      <c r="D60">
+        <v>1.2</v>
+      </c>
+      <c r="E60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F60">
+        <v>2.7</v>
+      </c>
+      <c r="G60">
+        <v>12.5</v>
+      </c>
+      <c r="H60">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>875</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>2.6</v>
+      </c>
+      <c r="D61">
+        <v>1.3</v>
+      </c>
+      <c r="E61">
+        <v>4.5</v>
+      </c>
+      <c r="F61">
+        <v>8.4</v>
+      </c>
+      <c r="G61">
+        <v>12.2</v>
+      </c>
+      <c r="H61">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>900</v>
+      </c>
+      <c r="B62">
+        <v>0.2</v>
+      </c>
+      <c r="C62">
+        <v>0.7</v>
+      </c>
+      <c r="D62">
+        <v>0.5</v>
+      </c>
+      <c r="E62">
+        <v>3.1</v>
+      </c>
+      <c r="F62">
+        <v>3.4</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>925</v>
+      </c>
+      <c r="B63">
+        <v>0.1</v>
+      </c>
+      <c r="C63">
+        <v>1.4</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2.9</v>
+      </c>
+      <c r="F63">
+        <v>3.4</v>
+      </c>
+      <c r="G63">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H63">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>950</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.7</v>
+      </c>
+      <c r="D64">
+        <v>4.2</v>
+      </c>
+      <c r="E64">
+        <v>3.4</v>
+      </c>
+      <c r="F64">
+        <v>3.9</v>
+      </c>
+      <c r="G64">
+        <v>9.6</v>
+      </c>
+      <c r="H64">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>975</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1.9</v>
+      </c>
+      <c r="D65">
+        <v>1.8</v>
+      </c>
+      <c r="E65">
+        <v>1.4</v>
+      </c>
+      <c r="F65">
+        <v>2.7</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1000</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.6</v>
+      </c>
+      <c r="D66">
+        <v>3.2</v>
+      </c>
+      <c r="E66">
+        <v>3.1</v>
+      </c>
+      <c r="F66">
+        <v>1.6</v>
+      </c>
+      <c r="G66">
+        <v>7.8</v>
+      </c>
+      <c r="H66">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1025</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67">
+        <v>1.2</v>
+      </c>
+      <c r="E67">
+        <v>2.4</v>
+      </c>
+      <c r="F67">
+        <v>5.8</v>
+      </c>
+      <c r="G67">
+        <v>7.9</v>
+      </c>
+      <c r="H67">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1050</v>
+      </c>
+      <c r="B68">
+        <v>0.1</v>
+      </c>
+      <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="D68">
+        <v>0.4</v>
+      </c>
+      <c r="E68">
+        <v>2.8</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>7.7</v>
+      </c>
+      <c r="H68">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1075</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.9</v>
+      </c>
+      <c r="D69">
+        <v>0.6</v>
+      </c>
+      <c r="E69">
+        <v>3.8</v>
+      </c>
+      <c r="F69">
+        <v>1.6</v>
+      </c>
+      <c r="G69">
+        <v>6.5</v>
+      </c>
+      <c r="H69">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1100</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.8</v>
+      </c>
+      <c r="E70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F70">
+        <v>1.4</v>
+      </c>
+      <c r="G70">
+        <v>5.8</v>
+      </c>
+      <c r="H70">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1125</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0.3</v>
+      </c>
+      <c r="D71">
+        <v>1.3</v>
+      </c>
+      <c r="E71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G71">
+        <v>5.9</v>
+      </c>
+      <c r="H71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1150</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0.5</v>
+      </c>
+      <c r="E72">
+        <v>0.5</v>
+      </c>
+      <c r="F72">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G72">
+        <v>5.8</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1175</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1.7</v>
+      </c>
+      <c r="D73">
+        <v>1.7</v>
+      </c>
+      <c r="E73">
+        <v>3.7</v>
+      </c>
+      <c r="F73">
+        <v>1.4</v>
+      </c>
+      <c r="G73">
+        <v>5.2</v>
+      </c>
+      <c r="H73">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1200</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>2.5</v>
+      </c>
+      <c r="E74">
+        <v>2.5</v>
+      </c>
+      <c r="F74">
+        <v>1.9</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1225</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0.7</v>
+      </c>
+      <c r="D75">
+        <v>1.2</v>
+      </c>
+      <c r="E75">
+        <v>0.9</v>
+      </c>
+      <c r="F75">
+        <v>1.2</v>
+      </c>
+      <c r="G75">
+        <v>4.3</v>
+      </c>
+      <c r="H75">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1250</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0.6</v>
+      </c>
+      <c r="D76">
+        <v>2.8</v>
+      </c>
+      <c r="E76">
+        <v>1.4</v>
+      </c>
+      <c r="F76">
+        <v>1.8</v>
+      </c>
+      <c r="G76">
+        <v>6.5</v>
+      </c>
+      <c r="H76">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1275</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0.4</v>
+      </c>
+      <c r="D77">
+        <v>0.5</v>
+      </c>
+      <c r="E77">
+        <v>0.5</v>
+      </c>
+      <c r="F77">
+        <v>1.6</v>
+      </c>
+      <c r="G77">
+        <v>5.3</v>
+      </c>
+      <c r="H77">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1300</v>
+      </c>
+      <c r="B78">
+        <v>0.3</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1.5</v>
+      </c>
+      <c r="E78">
+        <v>0.2</v>
+      </c>
+      <c r="F78">
+        <v>1.5</v>
+      </c>
+      <c r="G78">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1325</v>
+      </c>
+      <c r="B79">
+        <v>0.3</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1.6</v>
+      </c>
+      <c r="E79">
+        <v>2.5</v>
+      </c>
+      <c r="F79">
+        <v>0.3</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1350</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0.4</v>
+      </c>
+      <c r="E80">
+        <v>1.8</v>
+      </c>
+      <c r="F80">
+        <v>0.3</v>
+      </c>
+      <c r="G80">
+        <v>3.5</v>
+      </c>
+      <c r="H80">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1375</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1.8</v>
+      </c>
+      <c r="F81">
+        <v>0.2</v>
+      </c>
+      <c r="G81">
+        <v>3.5</v>
+      </c>
+      <c r="H81">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1400</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0.9</v>
+      </c>
+      <c r="E82">
+        <v>0.3</v>
+      </c>
+      <c r="F82">
+        <v>0.5</v>
+      </c>
+      <c r="G82">
+        <v>3.6</v>
+      </c>
+      <c r="H82">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1425</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0.1</v>
+      </c>
+      <c r="D83">
+        <v>0.6</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+      <c r="F83">
+        <v>2.4</v>
+      </c>
+      <c r="G83">
+        <v>2.7</v>
+      </c>
+      <c r="H83">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1450</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0.3</v>
+      </c>
+      <c r="D84">
+        <v>1.9</v>
+      </c>
+      <c r="E84">
+        <v>0.9</v>
+      </c>
+      <c r="F84">
+        <v>0.2</v>
+      </c>
+      <c r="G84">
+        <v>2.6</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1475</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0.2</v>
+      </c>
+      <c r="E85">
+        <v>0.6</v>
+      </c>
+      <c r="F85">
+        <v>0.5</v>
+      </c>
+      <c r="G85">
+        <v>2.6</v>
+      </c>
+      <c r="H85">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1500</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>0.6</v>
+      </c>
+      <c r="F86">
+        <v>0.6</v>
+      </c>
+      <c r="G86">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H86">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1525</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0.1</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+      <c r="E87">
+        <v>1.9</v>
+      </c>
+      <c r="F87">
+        <v>0.1</v>
+      </c>
+      <c r="G87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H87">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1550</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0.2</v>
+      </c>
+      <c r="F88">
+        <v>0.9</v>
+      </c>
+      <c r="G88">
+        <v>2.1</v>
+      </c>
+      <c r="H88">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1575</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0.6</v>
+      </c>
+      <c r="D89">
+        <v>0.3</v>
+      </c>
+      <c r="E89">
+        <v>0.6</v>
+      </c>
+      <c r="F89">
+        <v>0.1</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1600</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1.9</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.1</v>
+      </c>
+      <c r="G90">
+        <v>1.9</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1625</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0.1</v>
+      </c>
+      <c r="E91">
+        <v>0.1</v>
+      </c>
+      <c r="F91">
+        <v>0.1</v>
+      </c>
+      <c r="G91">
+        <v>1.7</v>
+      </c>
+      <c r="H91">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1650</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0.1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.2</v>
+      </c>
+      <c r="G92">
+        <v>1.7</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1675</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0.4</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.1</v>
+      </c>
+      <c r="G93">
+        <v>2.1</v>
+      </c>
+      <c r="H93">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1700</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1.5</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.1</v>
+      </c>
+      <c r="G94">
+        <v>2.6</v>
+      </c>
+      <c r="H94">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1725</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0.2</v>
+      </c>
+      <c r="D95">
+        <v>0.4</v>
+      </c>
+      <c r="E95">
+        <v>0.9</v>
+      </c>
+      <c r="F95">
+        <v>0.3</v>
+      </c>
+      <c r="G95">
+        <v>1.4</v>
+      </c>
+      <c r="H95">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1750</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1.4</v>
+      </c>
+      <c r="F96">
+        <v>1.5</v>
+      </c>
+      <c r="G96">
+        <v>1.2</v>
+      </c>
+      <c r="H96">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1775</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0.1</v>
+      </c>
+      <c r="E97">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F97">
+        <v>0.1</v>
+      </c>
+      <c r="G97">
+        <v>1.4</v>
+      </c>
+      <c r="H97">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1800</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.1</v>
+      </c>
+      <c r="E98">
+        <v>2.9</v>
+      </c>
+      <c r="F98">
+        <v>0.1</v>
+      </c>
+      <c r="G98">
+        <v>1.5</v>
+      </c>
+      <c r="H98">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1825</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1.3</v>
+      </c>
+      <c r="D99">
+        <v>0.4</v>
+      </c>
+      <c r="E99">
+        <v>0.4</v>
+      </c>
+      <c r="F99">
+        <v>0.1</v>
+      </c>
+      <c r="G99">
+        <v>1.2</v>
+      </c>
+      <c r="H99">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1850</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0.1</v>
+      </c>
+      <c r="F100">
+        <v>0.1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1875</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0.1</v>
+      </c>
+      <c r="F101">
+        <v>0.3</v>
+      </c>
+      <c r="G101">
+        <v>1.4</v>
+      </c>
+      <c r="H101">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1900</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>0.6</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1925</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.1</v>
+      </c>
+      <c r="G103">
+        <v>0.9</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1950</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.9</v>
+      </c>
+      <c r="H104">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1975</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1.3</v>
+      </c>
+      <c r="H105">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2000</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0.6</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0.8</v>
+      </c>
+      <c r="H106">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2025</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1.5</v>
+      </c>
+      <c r="F107">
+        <v>0.1</v>
+      </c>
+      <c r="G107">
+        <v>0.8</v>
+      </c>
+      <c r="H107">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2050</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0.8</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0.6</v>
+      </c>
+      <c r="H108">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2075</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0.6</v>
+      </c>
+      <c r="H109">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2100</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0.7</v>
+      </c>
+      <c r="F110">
+        <v>0.2</v>
+      </c>
+      <c r="G110">
+        <v>0.6</v>
+      </c>
+      <c r="H110">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2125</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0.6</v>
+      </c>
+      <c r="H111">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2150</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0.8</v>
+      </c>
+      <c r="H112">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2175</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0.5</v>
+      </c>
+      <c r="H113">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2200</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0.3</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.3</v>
+      </c>
+      <c r="G114">
+        <v>0.8</v>
+      </c>
+      <c r="H114">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2225</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0.1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0.5</v>
+      </c>
+      <c r="H115">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2250</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0.6</v>
+      </c>
+      <c r="H116">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2275</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0.4</v>
+      </c>
+      <c r="H117">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2300</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0.4</v>
+      </c>
+      <c r="H118">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2325</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0.2</v>
+      </c>
+      <c r="E119">
+        <v>0.7</v>
+      </c>
+      <c r="F119">
+        <v>1.4</v>
+      </c>
+      <c r="G119">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H119">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2350</v>
+      </c>
+      <c r="B120">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="C120">
+        <v>376.2</v>
+      </c>
+      <c r="D120">
+        <v>333.7</v>
+      </c>
+      <c r="E120">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="F120">
+        <v>190.3</v>
+      </c>
+      <c r="G120">
+        <v>422</v>
+      </c>
+      <c r="H120">
+        <v>1903.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>